--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.135193666666667</v>
+        <v>2.113523666666667</v>
       </c>
       <c r="N2">
-        <v>3.405581</v>
+        <v>6.340571000000001</v>
       </c>
       <c r="O2">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="P2">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="Q2">
-        <v>22.65367809657645</v>
+        <v>61.76444474255534</v>
       </c>
       <c r="R2">
-        <v>203.883102869188</v>
+        <v>555.8800026829981</v>
       </c>
       <c r="S2">
-        <v>0.001804852490703575</v>
+        <v>0.004481655796090356</v>
       </c>
       <c r="T2">
-        <v>0.001804852490703575</v>
+        <v>0.004481655796090356</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.862098</v>
       </c>
       <c r="O3">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="P3">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="Q3">
-        <v>45.64617877512267</v>
+        <v>66.844716783236</v>
       </c>
       <c r="R3">
-        <v>410.815608976104</v>
+        <v>601.6024510491239</v>
       </c>
       <c r="S3">
-        <v>0.003636699484391069</v>
+        <v>0.004850282612565972</v>
       </c>
       <c r="T3">
-        <v>0.003636699484391069</v>
+        <v>0.004850282612565972</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8212579999999999</v>
+        <v>1.164746666666667</v>
       </c>
       <c r="N4">
-        <v>2.463774</v>
+        <v>3.49424</v>
       </c>
       <c r="O4">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059967</v>
       </c>
       <c r="P4">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059966</v>
       </c>
       <c r="Q4">
-        <v>16.38884616126133</v>
+        <v>34.03791131701333</v>
       </c>
       <c r="R4">
-        <v>147.499615451352</v>
+        <v>306.34120185312</v>
       </c>
       <c r="S4">
-        <v>0.001305723939742062</v>
+        <v>0.002469806102467864</v>
       </c>
       <c r="T4">
-        <v>0.001305723939742062</v>
+        <v>0.002469806102467863</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H5">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.138589666666667</v>
+        <v>2.406253666666667</v>
       </c>
       <c r="N5">
-        <v>9.415769000000001</v>
+        <v>7.218761</v>
       </c>
       <c r="O5">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="P5">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="Q5">
-        <v>62.63301326784578</v>
+        <v>70.31902409013533</v>
       </c>
       <c r="R5">
-        <v>563.697119410612</v>
+        <v>632.871216811218</v>
       </c>
       <c r="S5">
-        <v>0.004990066050855791</v>
+        <v>0.00510237990809361</v>
       </c>
       <c r="T5">
-        <v>0.004990066050855791</v>
+        <v>0.00510237990809361</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.135193666666667</v>
+        <v>2.113523666666667</v>
       </c>
       <c r="N6">
-        <v>3.405581</v>
+        <v>6.340571000000001</v>
       </c>
       <c r="O6">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="P6">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="Q6">
-        <v>1858.701793510825</v>
+        <v>3460.563906594126</v>
       </c>
       <c r="R6">
-        <v>16728.31614159743</v>
+        <v>31145.07515934713</v>
       </c>
       <c r="S6">
-        <v>0.1480855579915826</v>
+        <v>0.2511000682410895</v>
       </c>
       <c r="T6">
-        <v>0.1480855579915826</v>
+        <v>0.2511000682410895</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.862098</v>
       </c>
       <c r="O7">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="P7">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="Q7">
         <v>3745.203493866993</v>
@@ -883,10 +883,10 @@
         <v>33706.83144480293</v>
       </c>
       <c r="S7">
-        <v>0.2983859762322267</v>
+        <v>0.2717536442817285</v>
       </c>
       <c r="T7">
-        <v>0.2983859762322268</v>
+        <v>0.2717536442817285</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J8">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8212579999999999</v>
+        <v>1.164746666666667</v>
       </c>
       <c r="N8">
-        <v>2.463774</v>
+        <v>3.49424</v>
       </c>
       <c r="O8">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059967</v>
       </c>
       <c r="P8">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059966</v>
       </c>
       <c r="Q8">
-        <v>1344.681319459246</v>
+        <v>1907.090201336355</v>
       </c>
       <c r="R8">
-        <v>12102.13187513322</v>
+        <v>17163.8118120272</v>
       </c>
       <c r="S8">
-        <v>0.1071327763324829</v>
+        <v>0.1383793198515945</v>
       </c>
       <c r="T8">
-        <v>0.1071327763324829</v>
+        <v>0.1383793198515945</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J9">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.138589666666667</v>
+        <v>2.406253666666667</v>
       </c>
       <c r="N9">
-        <v>9.415769000000001</v>
+        <v>7.218761</v>
       </c>
       <c r="O9">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="P9">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="Q9">
-        <v>5138.948898171452</v>
+        <v>3939.863423488092</v>
       </c>
       <c r="R9">
-        <v>46250.54008354307</v>
+        <v>35458.77081139283</v>
       </c>
       <c r="S9">
-        <v>0.4094277617489779</v>
+        <v>0.2858782560302717</v>
       </c>
       <c r="T9">
-        <v>0.409427761748978</v>
+        <v>0.2858782560302716</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.135193666666667</v>
+        <v>2.113523666666667</v>
       </c>
       <c r="N10">
-        <v>3.405581</v>
+        <v>6.340571000000001</v>
       </c>
       <c r="O10">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="P10">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="Q10">
-        <v>28.82951836588556</v>
+        <v>79.0291446569978</v>
       </c>
       <c r="R10">
-        <v>259.46566529297</v>
+        <v>711.2623019129801</v>
       </c>
       <c r="S10">
-        <v>0.00229689094224026</v>
+        <v>0.005734390160688492</v>
       </c>
       <c r="T10">
-        <v>0.00229689094224026</v>
+        <v>0.005734390160688491</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H11">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I11">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J11">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.862098</v>
       </c>
       <c r="O11">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="P11">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="Q11">
-        <v>58.09022904447334</v>
+        <v>85.52947920502668</v>
       </c>
       <c r="R11">
-        <v>522.8120614002601</v>
+        <v>769.76531284524</v>
       </c>
       <c r="S11">
-        <v>0.004628135622369576</v>
+        <v>0.006206057349232455</v>
       </c>
       <c r="T11">
-        <v>0.004628135622369577</v>
+        <v>0.006206057349232453</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H12">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I12">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J12">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8212579999999999</v>
+        <v>1.164746666666667</v>
       </c>
       <c r="N12">
-        <v>2.463774</v>
+        <v>3.49424</v>
       </c>
       <c r="O12">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059967</v>
       </c>
       <c r="P12">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059966</v>
       </c>
       <c r="Q12">
-        <v>20.85676945648667</v>
+        <v>43.55235489457778</v>
       </c>
       <c r="R12">
-        <v>187.71092510838</v>
+        <v>391.9711940512</v>
       </c>
       <c r="S12">
-        <v>0.001661690085869945</v>
+        <v>0.003160178393252619</v>
       </c>
       <c r="T12">
-        <v>0.001661690085869946</v>
+        <v>0.003160178393252618</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H13">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I13">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J13">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.138589666666667</v>
+        <v>2.406253666666667</v>
       </c>
       <c r="N13">
-        <v>9.415769000000001</v>
+        <v>7.218761</v>
       </c>
       <c r="O13">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="P13">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="Q13">
-        <v>79.70801026739224</v>
+        <v>89.97494189613113</v>
       </c>
       <c r="R13">
-        <v>717.3720924065301</v>
+        <v>809.77447706518</v>
       </c>
       <c r="S13">
-        <v>0.006350456656390387</v>
+        <v>0.006528622114753043</v>
       </c>
       <c r="T13">
-        <v>0.006350456656390389</v>
+        <v>0.00652862211475304</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H14">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.135193666666667</v>
+        <v>2.113523666666667</v>
       </c>
       <c r="N14">
-        <v>3.405581</v>
+        <v>6.340571000000001</v>
       </c>
       <c r="O14">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="P14">
-        <v>0.153770120695047</v>
+        <v>0.2651220308693004</v>
       </c>
       <c r="Q14">
-        <v>19.86681926867756</v>
+        <v>52.45166979411901</v>
       </c>
       <c r="R14">
-        <v>178.801373418098</v>
+        <v>472.0650281470711</v>
       </c>
       <c r="S14">
-        <v>0.001582819270520549</v>
+        <v>0.003805916671431984</v>
       </c>
       <c r="T14">
-        <v>0.001582819270520549</v>
+        <v>0.003805916671431984</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H15">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>6.862098</v>
       </c>
       <c r="O15">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="P15">
-        <v>0.3098401235152652</v>
+        <v>0.2869289465860668</v>
       </c>
       <c r="Q15">
-        <v>40.03077911520934</v>
+        <v>56.76594401212201</v>
       </c>
       <c r="R15">
-        <v>360.277012036884</v>
+        <v>510.893496109098</v>
       </c>
       <c r="S15">
-        <v>0.003189312176277856</v>
+        <v>0.004118962342539823</v>
       </c>
       <c r="T15">
-        <v>0.003189312176277857</v>
+        <v>0.004118962342539822</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H16">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8212579999999999</v>
+        <v>1.164746666666667</v>
       </c>
       <c r="N16">
-        <v>2.463774</v>
+        <v>3.49424</v>
       </c>
       <c r="O16">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059967</v>
       </c>
       <c r="P16">
-        <v>0.1112452839457698</v>
+        <v>0.1461067158059966</v>
       </c>
       <c r="Q16">
-        <v>14.37268788405467</v>
+        <v>28.90571253936</v>
       </c>
       <c r="R16">
-        <v>129.354190956492</v>
+        <v>260.15141285424</v>
       </c>
       <c r="S16">
-        <v>0.001145093587674906</v>
+        <v>0.002097411458681638</v>
       </c>
       <c r="T16">
-        <v>0.001145093587674907</v>
+        <v>0.002097411458681638</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H17">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.138589666666667</v>
+        <v>2.406253666666667</v>
       </c>
       <c r="N17">
-        <v>9.415769000000001</v>
+        <v>7.218761</v>
       </c>
       <c r="O17">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="P17">
-        <v>0.425144471843918</v>
+        <v>0.3018423067386362</v>
       </c>
       <c r="Q17">
-        <v>54.92789071780023</v>
+        <v>59.71639909002901</v>
       </c>
       <c r="R17">
-        <v>494.3510164602021</v>
+        <v>537.4475918102611</v>
       </c>
       <c r="S17">
-        <v>0.004376187387693906</v>
+        <v>0.004333048685517916</v>
       </c>
       <c r="T17">
-        <v>0.004376187387693907</v>
+        <v>0.004333048685517914</v>
       </c>
     </row>
   </sheetData>
